--- a/seo.xlsx
+++ b/seo.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://m.muenchenmusik.de</t>
+          <t>https://www.headstruggle.de</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -472,36 +472,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-        Konzerte in München - Tickets bei MünchenMusik
-</t>
+          <t>The Struggles in my Head</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://m.muenchenmusik.de</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Konzertkarten für klassische Musik in München - Tickets online bestellen - Konzerte und Theater im Prinzregententheater, der Residenz und der Philharmonie.</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/seo.xlsx
+++ b/seo.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.headstruggle.de</t>
+          <t>https://www.kulturdata.de</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -472,11 +472,5117 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Struggles in my Head</t>
+          <t>Digitale Transformation im Kulturmanagement » Holger Kurtz | KulturData</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.kulturdata.de</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KulturData sammelt das Wissen über die digitale Transformation im Kulturmanagement.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/category/kuenstliche-intelligenz/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Künstliche Intelligenz » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/category/kuenstliche-intelligenz/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Künstliche Intelligenz auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/blog/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/blog/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Im KulturData Blog findest du Beiträge zu den folgenden Themen und Schlagwörtern.</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Besuchersegmentierung im Kulturmarketing » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Besuchersegmentierung im Kulturmarketing auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tipps-fuer-klassische-musiker-auf-instagram/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tipps für klassische Musiker*innen auf Instagram</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tipps-fuer-klassische-musiker-auf-instagram/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ein kleiner Guide für klassische Musiker, die auf Instagram erfolgreich sein wollen. Ich gebe einen Überblick über (nicht) erfolgreiche Instagram Profile und versuche zu erklären, woran das liegt.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/netzwerke/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Netzwerke im Kulturmanagement</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wer-beschaeftigt-sich-mit-kultur-und-kuenstlicher-intelligenz/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wer beschäftigt sich mit Kultur und künstlicher Intelligenz?</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/ueber/presse/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Vorträge</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/online-marketing-kulturbetriebe/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Online Marketing für Kulturbetriebe » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/online-marketing-kulturbetriebe/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Einführungen ins digitale Marketing für dein Theater, Oper, Museum oder Orchester. Grundlaten und weiterführende Themen. Tipps &amp; Tricks aus der Praxis.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/impressum/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Impressum</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/studiengaenge/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Kulturmanagement – wo studieren?</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kuenstliche-intelligenz/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Künstliche Intelligenz » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kuenstliche-intelligenz/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Künstliche Intelligenz auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tools/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tools » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tools/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Tools auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/coding-reality-der-digital-track-beim-festival-hauptsache-frei/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CODING REALITY - Der "Digital Track" beim Festival Hauptsache Frei</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/datenschutzerklaerung/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Datenschutzerklärung</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/quiz-umfrage/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Interviews » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/quiz-umfrage/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Interviews auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>35 Millionen besuchen In-Game Konzert des Rappers Lil Nas X auf Roblox</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Das Wavelab an der Hochschule für Musik und Theater München</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tina Lorenz über Digitalisierung am Theater</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4 Gründe für geringere Reichweiten, Interaktionen und Shares auf Facebook</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Warum fremdeln Kulturorganisationen mit der Digitalisierung?</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3 Dimensionen des Lernen im interkulturellen und digitalen Team (1/3)</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Erstelle deinen eigenen Museums-Guide auf Telegram</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>KulturInvest!-Kongress 2020 | Fachforum: DIGITAL TRANSFORMATION</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Förderungen für Projekte mit Kultur &amp; Digitalisierung</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/feed/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Zwischen Malen-nach-Zahlen &amp; eigener Viehzucht für Pinselhaare: Kultur &amp; KI</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/35-millionen-besuchen-in-game-konzert-des-rappers-lil-nas-x-auf-roblox/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>35 Millionen besuchen In-Game Konzert des Rappers Lil Nas X auf Roblox</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/das-wavelab-an-der-hochschule-fuer-musik-und-theater-muenchen/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Das Wavelab an der Hochschule für Musik und Theater München</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/category/besuchersegmentierung/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Besuchersegmentierung im Kulturmarketing » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/category/besuchersegmentierung/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Besuchersegmentierung im Kulturmarketing auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Digitale Transformation im Kulturmanagement » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>KulturData sammelt das Wissen über die digitale Transformation im Kulturmanagement.</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/ueber/vortrag-buchen/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Vorträge</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/warum-fremdeln-kulturorganisationen-mit-der-digitalisierung/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Warum fremdeln Kulturorganisationen mit der Digitalisierung?</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/warum-fremdeln-kulturorganisationen-mit-der-digitalisierung/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Ich werde in diesem Text 5 Argumente anbringen, die zumindest einen Teil der Frage beantworten, weshalb so viele Kulturorganisationen mit der "digitalen Revolution" bis heute fremdeln.</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/learn-programming-now-wie-programmieren-meine-weltsicht-veraendert-hat/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Learn Programming, Now! - Wie Programmieren meine Weltsicht verändert hat</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/learn-programming-now-wie-programmieren-meine-weltsicht-veraendert-hat/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Das digitale Zeitalter prägt vor allem eines: Unwissenheit darüber, was da eigentlich abgeht. Nicht selten schalten viele bereits beim Begriff Algorithmus</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/author/holger-kurtz/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Digitale Transformation im Kulturmanagement » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/author/holger-kurtz/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>KulturData sammelt das Wissen über die digitale Transformation im Kulturmanagement.</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/newsletter/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Unser Newsletter: DigitalRadar</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/newsletter/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Keine Lust, ständig das Internet nach den neuesten Artikeln zu durchsuchen? Das KulturData+ Abo nimmt Ihnen diese Arbeit ab - kostenlos.</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-1/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wieso ist Besuchersegmentierung wichtig? Teil 1</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-1/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ich habe 151 Theater angeschrieben, um herauszufinden, wie der Status-quo in Deutschland zum Thema "Besuchersegmentierung" aussieht. Die Ergebnisse meiner Masterthesis werden hier veröffentlicht.</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalstrategie-kulturbetriebe/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Digitalstrategien von Kulturbetrieben im Überblick</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalstrategie-kulturbetriebe/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ziel dieser Übersicht ist es, anderen Kulturbetrieben eine Hilfestellungen zu geben, damit sie bei ihrer eigenen Digitalstrategien voran kommen.</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tina-lorenz-ueber-digitalisierung-am-theater/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tina Lorenz über Digitalisierung am Theater</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/4-grunde-geringere-reichweiten-interaktionen-shares-facebook/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4 Gründe für geringere Reichweiten, Interaktionen und Shares auf Facebook</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/4-grunde-geringere-reichweiten-interaktionen-shares-facebook/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Martin Juls zeigt vier Gründe auf, warum organische und virale Reichweiten auf Facebook für Kulturinstitutionen und Eventveranstalter kaum noch funktionieren.</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/google-experiments/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Artikel über Google Experiments auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/programmieren-von-0-bis-1-ein-erlebnisbericht/#comments</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Programmieren von 0 bis 1 - ein Erlebnisbericht</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/css/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Artikel über CSS auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/kunst/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Artikel über Kunst auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/#comments</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Christian Henner-Fehr</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/#comments</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Der Kulturmanager Christian Henner-Fehr antwortete auf die 5 Fragen zur digitalen Transformation.</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/komische-oper-berlin/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Artikel über Komische Oper Berlin auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/ein-neuronales-netz-trainieren-sodass-es-wie-shakespeare-schreibt/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ein neuronales Netz trainieren, sodass es wie Shakespeare schreibt</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/google-trends/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Artikel über Google Trends auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/datenbank/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Datenbank » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/datenbank/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Datenbank auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-3/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Kriterien zur Segmentierung des Publikums - Teil 3</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Jamulus im Test: Wie ein Streichquartett über 1000km gemeinsam probt</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>KulturData hat sich mit dem Vierimpuls Quartett in München getroffen. Seit mehreren Jahren lebt ein Ensemblemitglied in Cambridge und nimmt über Streaming an den Proben teil. KulturData hat mit dem Cellist des Ensembles über diesen Online-Proben Ansatz gesprochen.</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/beethoven-jahr-2020-im-vergleich-zum-mozart-jahr-2006/#comments</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Beethoven-Jahr 2020 im Vergleich zum Mozart-Jahr 2006</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/ein-neuronales-netz-trainieren-sodass-es-wie-shakespeare-schreibt/#comments</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ein neuronales Netz trainieren, sodass es wie Shakespeare schreibt</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/buchbesprechung-kuenstliche-intelligenz-fuer-sales-marketing-und-service/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Buchbesprechung: Künstliche Intelligenz für Sales, Marketing und Service</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/artbreeder-kuenstliche-intelligenz-kunst-fur-jeden/</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Artbreeder App Tutorial: Künstliche Intelligenz Kunst für jeden?</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/artbreeder-kuenstliche-intelligenz-kunst-fur-jeden/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Mit Artbreeder kannst du Bilder fusionieren, um ein neues Bild/Video zu erschaffen, dass Charakteristika von beiden Bildern enthält.</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitale-technologien-der-new-york-philharmonic/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Digitale Technologien der New York Philharmonic</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitale-technologien-der-new-york-philharmonic/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Die New Yorker Philharmoniker ließen über eine Stellenanzeige einen kleinen Einblick in ihre verwendeten Technologien zu. Diese werden in diesem Beitrag dargestellt und erklärt. Die Erläuterungen der Software befinden sich in den Fußnoten.</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/online-galerie-zeigt-werke-kuenstlicher-neuronaler-netze/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Online Galerie zeigt Werke künstlicher neuronaler Netze</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wer-beschaeftigt-sich-mit-kultur-und-kuenstlicher-intelligenz/#comments</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Wer beschäftigt sich mit Kultur und künstlicher Intelligenz?</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/musermeku/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Artikel über musermeku auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tools/page/2/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tools » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tools/page/2/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Tools auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/hackathon-wirvsvirus-die-kulturprojekte/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Hackathon #WirVsVirus | Die Kulturprojekte</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-hannes-tronsberg/#comments</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Hannes Tronsberg</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/welche-daten-sammeln-theater-besuchersegmentierung-im-kulturmarketing-teil-5/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Welche Daten sammeln Theater? – Teil 5</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/uebersicht-ueber-lesenswerte-online-marketing-blogs/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Übersicht über lesenswerte Online Marketing Blogs</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kulturinvest-kongress-2020-fachforum-digital-transformation/</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>KulturInvest!-Kongress 2020 | Fachforum: DIGITAL TRANSFORMATION</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/big-data/</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Big Data » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/big-data/</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Big Data auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalisierung/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Digitalisierung » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalisierung/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Digitalisierung auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/welche-kulturinstitution-ist-king-of-social-media-erfolge-messen/#comments</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Welche Kulturinstitution ist King of Social Media? Erfolge messen</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-hannes-tronsberg/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Hannes Tronsberg</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kuenstliche-intelligenz-wann-beginnt-das-kunstwerk/#comments</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Zwischen Malen-nach-Zahlen &amp; eigener Viehzucht für Pinselhaare: Kultur &amp; KI</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-dr-angelika-schoder/#comments</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Dr. Angelika Schoder</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalstrategie-kulturbetriebe/#comments</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Digitalstrategien von Kulturbetrieben im Überblick</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalstrategie-kulturbetriebe/#comments</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ziel dieser Übersicht ist es, anderen Kulturbetrieben eine Hilfestellungen zu geben, damit sie bei ihrer eigenen Digitalstrategien voran kommen.</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/python/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Artikel über python auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/how-to-built-a-chatbot-ohne-programmieren-zu-koennen/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ChatBot erstellen - ohne Programmieren zu können</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/new-york-philharmonic/</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Artikel über New York Philharmonic auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kuenstliche-intelligenz-wann-beginnt-das-kunstwerk/</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Zwischen Malen-nach-Zahlen &amp; eigener Viehzucht für Pinselhaare: Kultur &amp; KI</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/welche-daten-sammeln-theater-besuchersegmentierung-im-kulturmarketing-teil-5/#comments</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Welche Daten sammeln Theater? – Teil 5</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/masterarbeit/</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Artikel über Masterarbeit auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-kann-ich-mehrere-links-im-instagram-profil-einfuegen/</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Wie kann ich mehrere Links im Instagram-Profil einfügen?</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/erstelle-deinen-eigenen-museums-guide-auf-telegram/</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Erstelle deinen eigenen Museums-Guide auf Telegram</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/interview/</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Artikel über Interview auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/theater/</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Artikel über Theater auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/describemyart-kuenstliche-intelligenz-twitter-bot-beschreibt-eure-imaginaren-kunstwerke/</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>#DescribeMyArt – K.I. Twitter-Bot beschreibt eure imaginären Kunstwerke</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/describemyart-kuenstliche-intelligenz-twitter-bot-beschreibt-eure-imaginaren-kunstwerke/</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Wie stellt sich eine »künstliche Intelligenz« ein Kunstwerk vor? Wer den Titel eines imaginären Kunstwerkes, sagen wir mal, »Portrait of a Man« mit dem Hashtag #DescribeMyArt twittert, findet es heraus.</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/api/</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Artikel über API auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tina-lorenz-ueber-digitalisierung-am-theater/#comments</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Tina Lorenz über Digitalisierung am Theater</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/museum/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Artikel über Museum auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/predictive-analytics/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Artikel über Predictive Analytics auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/online-marketing-fuer-kulturbetriebe-ohne-google-twitter-facebook-und-e-mail/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Online Marketing für Kulturbetriebe ohne Google, Twitter, Facebook und E-Mail</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/alle-konzertprogramme-der-new-yorker-philharmoniker/</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Alle Konzertprogramme der New Yorker Philharmoniker</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/beethoven-jahr-2020-im-vergleich-zum-mozart-jahr-2006/</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Beethoven-Jahr 2020 im Vergleich zum Mozart-Jahr 2006</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/twicture-visualisierung-der-stimmung-auf-twitter/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Twicture – Visualisierung der Stimmung auf Twitter | Python Projekt</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/twicture-visualisierung-der-stimmung-auf-twitter/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Scannt Tweets zu einem bestimmten Thema und zeichnet dementsprechend einen Vogel nach. Die Farbe des Vogels basiert auf dem Ergebnis einer Stimmungsanalyse.</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/tableau/</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Artikel über Tableau auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/3-dimensionen-des-lernen-im-interkulturellen-und-digitalen-team-1-3/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3 Dimensionen des Lernen im interkulturellen und digitalen Team (1/3)</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/hackathon/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Artikel über Hackathon auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/gig-economy-wieso-die-grenzen-zwischen-arbeitsmarkt-und-unternehmen-schwinden/</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Gig Economy: Wieso die Grenzen zwischen Arbeitsmarkt und Unternehmen schwinden</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/susanne-schuster/</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Artikel über Susanne Schuster auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/#comments</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Jamulus im Test: Wie ein Streichquartett über 1000km gemeinsam probt</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/#comments</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>KulturData hat sich mit dem Vierimpuls Quartett in München getroffen. Seit mehreren Jahren lebt ein Ensemblemitglied in Cambridge und nimmt über Streaming an den Proben teil. KulturData hat mit dem Cellist des Ensembles über diesen Online-Proben Ansatz gesprochen.</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/github/</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Artikel über GitHub auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/social-media/</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Artikel über Social Media auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-4/</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Massenmarketing oder Personalisierung? – Teil 4</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/repertoire-scoring/</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Artikel über Repertoire Scoring auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Christian Henner-Fehr</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Der Kulturmanager Christian Henner-Fehr antwortete auf die 5 Fragen zur digitalen Transformation.</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-1/#comments</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Wieso ist Besuchersegmentierung wichtig? Teil 1</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-1/#comments</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Ich habe 151 Theater angeschrieben, um herauszufinden, wie der Status-quo in Deutschland zum Thema "Besuchersegmentierung" aussieht. Die Ergebnisse meiner Masterthesis werden hier veröffentlicht.</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/warum-fremdeln-kulturorganisationen-mit-der-digitalisierung/#comments</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Warum fremdeln Kulturorganisationen mit der Digitalisierung?</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/warum-fremdeln-kulturorganisationen-mit-der-digitalisierung/#comments</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Ich werde in diesem Text 5 Argumente anbringen, die zumindest einen Teil der Frage beantworten, weshalb so viele Kulturorganisationen mit der "digitalen Revolution" bis heute fremdeln.</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegementierung-abenteuerlust/</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Besucher-Segmentierung nach Abenteuerlust</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegementierung-abenteuerlust/</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>In diesem Beitrag werde ich eine Technik vorstellen, die die University Musical Society der University of Michigan anwendet: Segmentierung nach...</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kulturfoerderung-uebersicht-projekte-digitalisierung/</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Förderungen für Projekte mit Kultur &amp; Digitalisierung</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kulturfoerderung-uebersicht-projekte-digitalisierung/</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>In dieser Übersicht findet ihr Drittmittel und Förderungen von öffentlichen und privaten Geldgebern, bei denen ihr euch bewerben könnt, um eure Projekte zu finanzieren und Kooperationspartner zu finden.</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/welche-zielgruppen-sprechen-theater-an/</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Welche Zielgruppen sprechen Theater an? – Teil 6</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/anette-haferkorn/</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Artikel über Anette Haferkorn auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/google-demand-selber-bauen/</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Google Demand selber bauen | Insights über Künstler*Innen und Fans</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/webscrapping/</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Artikel über webscrapping auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/statistiken/</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Statistiken » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/statistiken/</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Statistiken auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-2/</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Was ist die Orpheus'sche Angst? - Teil 2</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/praesentation/</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Artikel über Präsentation auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/twitter/</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Artikel über Twitter auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/ich-habe-eine-ki-mit-der-bibel-gefuettert-das-kam-dabei-heraus/</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Ich habe eine KI mit der Bibel gefüttert – das kam dabei heraus</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/ich-habe-eine-ki-mit-der-bibel-gefuettert-das-kam-dabei-heraus/</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Heute zeige ich euch die Ergebnisse des GPT2 Netzes, dem ich eine komplette englische Bibel zum lernen gegeben habe. Auf dieser Textbasis hat es Strukturen und Regelmäßigkeit gelernt und darauf aufbauend eigene, neue Sätze verfasst.</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/coding-reality-der-digital-track-beim-festival-hauptsache-frei/#comments</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>CODING REALITY - Der "Digital Track" beim Festival Hauptsache Frei</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/best-practice/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Best Practice » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/best-practice/</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Best Practice auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/html/</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Artikel über HTML auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/strategie/</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Artikel über Strategie auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/author/gastbeitrag/</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Digitale Transformation im Kulturmanagement » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/author/gastbeitrag/</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>KulturData sammelt das Wissen über die digitale Transformation im Kulturmanagement.</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/welche-werbemittel-nutzen-theater/</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Welche Werbemittel nutzen Theater? | Teil 7</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/welche-werbemittel-nutzen-theater/</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>In Teil 7 der Reihe »Besuchersegmentierung im Kulturmarketing« zeige ich, welche Werbemittel (Media) Theater nutzen, um ihre Zielgruppen anzusprechen. Dabei betrachten wir die Medien anhand ihrer Targeting-Tiefe.</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/artbreeder-kuenstliche-intelligenz-kunst-fur-jeden/#comments</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Artbreeder App Tutorial: Künstliche Intelligenz Kunst für jeden?</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/artbreeder-kuenstliche-intelligenz-kunst-fur-jeden/#comments</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Mit Artbreeder kannst du Bilder fusionieren, um ein neues Bild/Video zu erschaffen, dass Charakteristika von beiden Bildern enthält.</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/github-google-drive-fuer-progammierer/</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>GitHub - Google Drive für Progammierer</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/github-google-drive-fuer-progammierer/#comments</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>GitHub - Google Drive für Progammierer</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-2/#comments</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Was ist die Orpheus'sche Angst? - Teil 2</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/welche-kulturinstitution-ist-king-of-social-media-erfolge-messen/</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Welche Kulturinstitution ist King of Social Media? Erfolge messen</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/how-to-built-a-chatbot-ohne-programmieren-zu-koennen/#comments</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ChatBot erstellen - ohne Programmieren zu können</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/ricardo-gehn/</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Artikel über Ricardo Gehn auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-dr-angelika-schoder/</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Dr. Angelika Schoder</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/alle-konzertprogramme-der-new-yorker-philharmoniker/#comments</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Alle Konzertprogramme der New Yorker Philharmoniker</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/programmieren-von-0-bis-1-ein-erlebnisbericht/</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Programmieren von 0 bis 1 - ein Erlebnisbericht</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/orchester/</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Artikel über Orchester auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/facebook/</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Artikel über Facebook auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/category/besuchersegmentierung</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Besuchersegmentierung im Kulturmarketing » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/category/besuchersegmentierung</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Besuchersegmentierung im Kulturmarketing auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-sven-kielgas/</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Sven Kielgas</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/programmieren/</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Artikel über Programmieren auf Holger Kurtz | KulturData lesen</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-big-data-bei-den-los-angeles-philharmonic-die-nachfrage-voraussagt/</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Wie Big Data bei den Los Angeles Philharmonic die Nachfrage voraussagt</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-big-data-bei-den-los-angeles-philharmonic-die-nachfrage-voraussagt/</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Wie die LAPhil ein zusätzliches Einnahmenpotenzial von 10% erreichten - und wieso das problematisch ist.</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/besuchersegmentierung-im-kulturmarketing-teil-3/#comments</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Kriterien zur Segmentierung des Publikums - Teil 3</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/#comment-27</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Jamulus im Test: Wie ein Streichquartett über 1000km gemeinsam probt</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/#comment-27</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>KulturData hat sich mit dem Vierimpuls Quartett in München getroffen. Seit mehreren Jahren lebt ein Ensemblemitglied in Cambridge und nimmt über Streaming an den Proben teil. KulturData hat mit dem Cellist des Ensembles über diesen Online-Proben Ansatz gesprochen.</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/opernfans-in-deutschland-eine-einsicht-durch-facebook/#comments</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Die Hauptstadt der Opernliebhaber: Eine Einsicht durch Facebook</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/opernfans-in-deutschland-eine-einsicht-durch-facebook/#comments</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Am Anfang war die Frage: Wo wohnen eigentlich die meisten Opernliebhaber in Deutschland? Vermutung: Berlin oder München. Zweite Frage: Und wo ist der Ant</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalisierung/page/2/</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Digitalisierung » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/digitalisierung/page/2/</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Digitalisierung auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/veranstaltungsuebersicht-in-muenchen-python-projekt/</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Veranstaltungsübersicht in München | Python Projekt</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-das-british-museum-big-data-nutzt/</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Wie das British Museum Big Data nutzt</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kann-oder-will-das-digitale-die-analoge-kultur-ersetzen/</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Kann oder will das Digitale die analoge Kultur ersetzen?</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kann-oder-will-das-digitale-die-analoge-kultur-ersetzen/</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Nein.</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/how-to-built-a-chatbot-ohne-programmieren-zu-koennen/#comment-7</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ChatBot erstellen - ohne Programmieren zu können</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/so-war-der-vc-culttech-hackathon-in-wien/</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>So war der VC CultTech Hackathon in Wien</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wer-folgt-den-berliner-opernhaeusern-auf-twitter-eine-einladung-zur-analyse/</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Wer folgt den Berliner Opernhäusern auf Twitter? Eine Einladung zur Analyse</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/besuchersegmentierung/</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Besuchersegmentierung im Kulturmarketing » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/tag/besuchersegmentierung/</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Besuchersegmentierung im Kulturmarketing auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-das-british-museum-big-data-nutzt/#comments</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Wie das British Museum Big Data nutzt</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/veranstaltungsuebersicht-in-muenchen-python-projekt/#comments</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Veranstaltungsübersicht in München | Python Projekt</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/alle-konzertprogramme-der-new-yorker-philharmoniker/#comment-25</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Alle Konzertprogramme der New Yorker Philharmoniker</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/so-war-der-vc-culttech-hackathon-in-wien/#comments</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>So war der VC CultTech Hackathon in Wien</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/nachfrage-nach-theater-auf-google-ist-seit-jahren-rucklaufig/</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Nachfrage nach »Theater« auf Google ist seit Jahren rückläufig</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/data-und-journalismus-die-washington-post-und-amazon/</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Data und Journalismus: Die Washington Post und Amazon | Datenbank</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/#comment-28</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Jamulus im Test: Wie ein Streichquartett über 1000km gemeinsam probt</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-ein-streichquartett-ueber-1000km-gemeinsam-probt/#comment-28</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>KulturData hat sich mit dem Vierimpuls Quartett in München getroffen. Seit mehreren Jahren lebt ein Ensemblemitglied in Cambridge und nimmt über Streaming an den Proben teil. KulturData hat mit dem Cellist des Ensembles über diesen Online-Proben Ansatz gesprochen.</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/kuenstliche-kunst-wenn-a-i-auf-musik-trifft/</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Künstliche Kunst - Wenn A.I. auf Musik trifft</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/erstelle-deinen-eigenen-museums-guide-auf-telegram/#comments</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Erstelle deinen eigenen Museums-Guide auf Telegram</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/#comment-10</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Christian Henner-Fehr</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/#comment-10</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Der Kulturmanager Christian Henner-Fehr antwortete auf die 5 Fragen zur digitalen Transformation.</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/korrelation-und-kausalitaet-wieso-nicolas-cage-keine-menschen-ertraenkt/</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Korrelation und Kausalität: Wieso Nicolas Cage (keine) Menschen ertränkt</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/korrelation-und-kausalitaet-wieso-nicolas-cage-keine-menschen-ertraenkt/</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Der Blog "Spurious Correlations" zeigt Daten, zwischen denen eine Korrelation besteht - jedoch vermutlich keine Kausalität.</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/how-many-years-after-an-artwork-was-created-did-the-tate-museum-in-london-acquire-it/</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>How Many Years After An Artwork Was Created Did The Tate Museum In London Acquire It?</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/die-5-nachfrage-faktoren-fuer-programme-der-seattle-opera/#comments</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Die 5 Nachfrage-Faktoren für Programme der Seattle Opera</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/wie-nutzen-theater-besucherdaten-im-marketing-besuchersegmentierung-im-kulturmarketing-teil-6/</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Welche Zielgruppen sprechen Theater an? – Teil 6</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/3-dimensionen-des-lernen-im-interkulturellen-und-digitalen-team-1-3/#comments</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>3 Dimensionen des Lernen im interkulturellen und digitalen Team (1/3)</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/die-5-nachfrage-faktoren-fuer-programme-der-seattle-opera/</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Die 5 Nachfrage-Faktoren für Programme der Seattle Opera</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/alle-konzertprogramme-der-new-yorker-philharmoniker/#comment-26</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Alle Konzertprogramme der New Yorker Philharmoniker</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/best-practice/page/2/</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Best Practice » Holger Kurtz | KulturData</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/best-practice/page/2/</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Alle Beiträge zu: Best Practice auf Holger Kurtz | KulturData » . Jetzt mehr erfahren!</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/#comment-11</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>5 Fragen an: Christian Henner-Fehr</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/5-fragen-an-christian-henner-fehr/#comment-11</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Der Kulturmanager Christian Henner-Fehr antwortete auf die 5 Fragen zur digitalen Transformation.</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/opernfans-in-deutschland-eine-einsicht-durch-facebook/</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Die Hauptstadt der Opernliebhaber: Eine Einsicht durch Facebook</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://kulturdata.de/opernfans-in-deutschland-eine-einsicht-durch-facebook/</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Am Anfang war die Frage: Wo wohnen eigentlich die meisten Opernliebhaber in Deutschland? Vermutung: Berlin oder München. Zweite Frage: Und wo ist der Ant</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
